--- a/CapsStone/Project-Report/Project-Report-addons.xlsx
+++ b/CapsStone/Project-Report/Project-Report-addons.xlsx
@@ -8,15 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aamol\Repos\GithubRepos\msdatascience\msdatascience\CapsStone\Project Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE2C524-0BB6-48FF-88B0-A94B72FEB208}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF259A3F-9001-4C52-8E77-26B993E08AE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Important Variables" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="8" r:id="rId2"/>
+    <sheet name="Important Variables" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId6"/>
+    <sheet name="Logistic regession" sheetId="6" r:id="rId7"/>
+    <sheet name="Random Forest" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet7" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="193">
   <si>
     <t>Logisitic Regression</t>
   </si>
@@ -60,9 +65,6 @@
     <t>Accruracy %</t>
   </si>
   <si>
-    <t>Auc</t>
-  </si>
-  <si>
     <t xml:space="preserve">                      dlc + </t>
   </si>
   <si>
@@ -439,13 +441,193 @@
   </si>
   <si>
     <t>de_ration</t>
+  </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
+    <t>bkvlps</t>
+  </si>
+  <si>
+    <t>rect</t>
+  </si>
+  <si>
+    <t>dlc</t>
+  </si>
+  <si>
+    <t>Book Value Per Share</t>
+  </si>
+  <si>
+    <t>Receivables - Total</t>
+  </si>
+  <si>
+    <t>Debt in Current Liabilities - Total</t>
+  </si>
+  <si>
+    <t>Litigated</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before </t>
+  </si>
+  <si>
+    <t>After removing class imbalance</t>
+  </si>
+  <si>
+    <t>Predicted</t>
+  </si>
+  <si>
+    <t>Observed</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">##                      Estimate Std. Error z value Pr(&gt;|z|)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">## (Intercept)        -1.251e+03  7.944e+02  -1.574  0.11541   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">## acominc             1.485e+00  1.565e+00   0.949  0.34279   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">## bkvlps             -3.087e+03  1.396e+03  -2.212  0.02699 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">## caps                1.166e-01  7.493e-01   0.156  0.87634   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">## dlc                -5.101e+00  2.907e+00  -1.755  0.07930 . </t>
+  </si>
+  <si>
+    <t>## dvt                -5.324e+00  2.054e+00  -2.591  0.00956 **</t>
+  </si>
+  <si>
+    <t xml:space="preserve">## nopi                2.268e+00  9.762e-01   2.324  0.02014 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">## re                 -1.076e-01  1.728e+00  -0.062  0.95037   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">## rect               -4.942e-02  1.618e+00  -0.031  0.97563   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">## revt                3.644e+00  1.592e+00   2.289  0.02210 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">## tstk                1.540e+00  9.650e-01   1.596  0.11046   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">## wcap               -5.575e-02  7.998e-01  -0.070  0.94443   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">## prccd_m             7.919e+00  5.656e+00   1.400  0.16148   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">## prcod_m            -5.030e+00  6.412e+00  -0.785  0.43272   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">## trfm_m             -5.185e-02  4.802e-01  -0.108  0.91400   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">## pe_ratio           -1.092e+04  8.644e+03  -1.264  0.20632   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">## wc_ratio            1.574e-01  1.789e-01   0.880  0.37906   </t>
+  </si>
+  <si>
+    <t>## sp_rating_target    7.720e-01  2.800e-01   2.757  0.00583 **</t>
+  </si>
+  <si>
+    <t xml:space="preserve">## restmt_at_target    4.130e-01  2.188e-01   1.888  0.05904 . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">## restmt_capx_target  5.081e-01  2.200e-01   2.309  0.02094 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">## restmt_dltt_target -1.908e-01  2.505e-01  -0.762  0.44614   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">## restmt_cogs_target -4.161e-01  2.336e-01  -1.782  0.07482 . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">## restmt_nopi_target -2.037e-01  2.187e-01  -0.931  0.35171   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">## restmt_nopi_mag     4.413e+00  7.017e+00   0.629  0.52941   </t>
+  </si>
+  <si>
+    <t>Dividends - Total</t>
+  </si>
+  <si>
+    <t>Treasury Stock - Total (All Capital)</t>
+  </si>
+  <si>
+    <t>dvt</t>
+  </si>
+  <si>
+    <t>tstk</t>
+  </si>
+  <si>
+    <t>sp_rating</t>
+  </si>
+  <si>
+    <t>Standard and poor rating</t>
+  </si>
+  <si>
+    <t>Monthly Total Return Factor</t>
+  </si>
+  <si>
+    <t>trfm</t>
+  </si>
+  <si>
+    <t>Trees = 100</t>
+  </si>
+  <si>
+    <t>Trees = 300</t>
+  </si>
+  <si>
+    <t>Trees = 500</t>
+  </si>
+  <si>
+    <t>Trees = 100 and Only important variables</t>
+  </si>
+  <si>
+    <t>Accuracy %</t>
+  </si>
+  <si>
+    <t>Configurations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model </t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>GBM (Gradient Boosting)</t>
+  </si>
+  <si>
+    <t>LDA (Linear discriminant analysis)</t>
+  </si>
+  <si>
+    <t>Glmnet (Ridge regression)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,8 +677,42 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -515,8 +731,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -567,12 +801,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -596,6 +867,49 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,22 +1072,20 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$A$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$A$2,Sheet1!$A$6)</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Logisitic Regression</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>LDA</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Lasso</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Gradient boosting</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>Random forest</c:v>
                 </c:pt>
               </c:strCache>
@@ -781,24 +1093,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$2:$B$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$B$2,Sheet1!$B$6)</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.66265059999999998</c:v>
+                  <c:v>0.83132530000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75903609999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.76519999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.77108429999999994</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.80722890000000003</c:v>
+                  <c:v>0.85540000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -839,7 +1149,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Auc</c:v>
+                        <c:v>AUC</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -887,26 +1197,20 @@
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$2:$A$6</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$6</c15:sqref>
+                          <c15:sqref>(Sheet1!$A$2,Sheet1!$A$6)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="2"/>
                       <c:pt idx="0">
                         <c:v>Logisitic Regression</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>LDA</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Lasso</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Gradient boosting</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
                         <c:v>Random forest</c:v>
                       </c:pt>
                     </c:strCache>
@@ -916,35 +1220,29 @@
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$C$2:$C$6</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$2:$C$6</c15:sqref>
+                          <c15:sqref>(Sheet1!$C$2,Sheet1!$C$6)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0%</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>0.58522730000000001</c:v>
+                        <c:v>0.75378789999999996</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.49116159999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.54666700000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.77777779999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.79103540000000006</c:v>
+                        <c:v>0.86426769999999997</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-A805-45B2-BA30-23D7100F5E35}"/>
+                    <c16:uniqueId val="{00000001-592E-43E5-B979-7CA8553EC474}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -1209,7 +1507,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Auc</c:v>
+                  <c:v>AUC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1310,22 +1608,20 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$A$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$A$2,Sheet1!$A$6)</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Logisitic Regression</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>LDA</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Lasso</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Gradient boosting</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>Random forest</c:v>
                 </c:pt>
               </c:strCache>
@@ -1333,24 +1629,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$2:$C$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$C$2,Sheet1!$C$6)</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.58522730000000001</c:v>
+                  <c:v>0.75378789999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.49116159999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.54666700000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.77777779999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.79103540000000006</c:v>
+                  <c:v>0.86426769999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1439,26 +1733,20 @@
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$2:$A$6</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$6</c15:sqref>
+                          <c15:sqref>(Sheet1!$A$2,Sheet1!$A$6)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="2"/>
                       <c:pt idx="0">
                         <c:v>Logisitic Regression</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>LDA</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Lasso</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Gradient boosting</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
                         <c:v>Random forest</c:v>
                       </c:pt>
                     </c:strCache>
@@ -1468,28 +1756,22 @@
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$2:$B$6</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$B$6</c15:sqref>
+                          <c15:sqref>(Sheet1!$B$2,Sheet1!$B$6)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0%</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>0.66265059999999998</c:v>
+                        <c:v>0.83132530000000004</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.75903609999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.76519999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.77108429999999994</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.80722890000000003</c:v>
+                        <c:v>0.85540000000000005</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1695,6 +1977,1046 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$B$2:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.85542169999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83130000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3CA1-4565-9311-95E9898793BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="333093976"/>
+        <c:axId val="333096272"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="333093976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="333096272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="333096272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="333093976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GBM (Gradient Boosting)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Glmnet (Ridge regression)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LDA (Linear discriminant analysis)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.85542169999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83130000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74698799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77108429999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69879519999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EC6B-4045-BC78-FB3D563D6DEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="336274704"/>
+        <c:axId val="336270112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="336274704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="336270112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="336270112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="336274704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$A$23:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GBM (Gradient Boosting)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Glmnet (Ridge regression)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LDA (Linear discriminant analysis)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$B$23:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.88636360000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75378789999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79545449999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62752529999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53093429999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E4FB-45E2-9818-E362CC0BC3C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="608418384"/>
+        <c:axId val="608418056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="608418384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="608418056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="608418056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="608418384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1775,6 +3097,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
@@ -2767,6 +4209,1501 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2777,10 +5714,10 @@
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2807,16 +5744,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2836,6 +5773,119 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>401955</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>20001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E68C880A-4FF3-4973-8650-18E36B554310}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>94297</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>67627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>399097</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>96202</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8668C7E1-A9D6-43AC-BFBA-826CCFCF2840}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>8572</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>10477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>313372</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>39052</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BF57B03-B05B-4598-852E-64CDAF9A7959}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3107,10 +6157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3119,7 +6169,7 @@
     <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -3127,21 +6177,22 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.66265059999999998</v>
+      <c r="B2" s="14">
+        <v>0.83132530000000004</v>
       </c>
       <c r="C2" s="1">
-        <v>0.58522730000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.75378789999999996</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3152,7 +6203,7 @@
         <v>0.49116159999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3163,7 +6214,7 @@
         <v>0.54666700000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3174,15 +6225,15 @@
         <v>0.77777779999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>0.80722890000000003</v>
+        <v>0.85540000000000005</v>
       </c>
       <c r="C6" s="1">
-        <v>0.79103540000000006</v>
+        <v>0.86426769999999997</v>
       </c>
     </row>
   </sheetData>
@@ -3193,10 +6244,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0D2643-6ADB-4CD1-8D10-E2A4A4088E6B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22324CA9-0B05-42FB-8C55-C5EFDE5FD5E8}">
   <dimension ref="A2:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -3207,227 +6278,227 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3435,7 +6506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B8805A-1436-4278-A9C7-44F1C060C94A}">
   <dimension ref="A1:D37"/>
   <sheetViews>
@@ -3450,13 +6521,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D1" t="str">
         <f>_xlfn.CONCAT(A1:C1)</f>
@@ -3465,13 +6536,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D37" si="0">_xlfn.CONCAT(A2:C2)</f>
@@ -3480,13 +6551,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
@@ -3495,13 +6566,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -3510,13 +6581,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -3525,13 +6596,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -3540,13 +6611,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -3555,13 +6626,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -3570,13 +6641,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -3585,13 +6656,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -3600,13 +6671,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -3615,13 +6686,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -3630,13 +6701,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -3645,13 +6716,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -3660,13 +6731,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -3675,13 +6746,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -3690,13 +6761,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -3705,13 +6776,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -3720,13 +6791,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -3735,10 +6806,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -3747,10 +6818,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -3759,10 +6830,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -3771,10 +6842,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -3783,10 +6854,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -3795,10 +6866,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -3807,10 +6878,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -3819,10 +6890,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -3831,10 +6902,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -3843,10 +6914,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
@@ -3855,10 +6926,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -3867,10 +6938,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
@@ -3879,10 +6950,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
@@ -3891,10 +6962,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
@@ -3903,10 +6974,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
@@ -3915,10 +6986,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
@@ -3927,10 +6998,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
@@ -3939,10 +7010,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -3954,12 +7025,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D96FAC2-DC0D-4E40-A0E9-84734552950F}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:B55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3970,393 +7041,429 @@
     <col min="5" max="5" width="58.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C1" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C2" s="5">
+        <f>C23+1</f>
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C3" s="5">
-        <f>C2+1</f>
+        <f t="shared" ref="C3:C21" si="0">C2+1</f>
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5">
-        <f t="shared" ref="C4:C21" si="0">C3+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C5" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C6" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D6" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C7" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C8" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C9" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>61</v>
+      <c r="D9" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C10" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C11" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C12" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C13" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C15" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C16" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C17" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>59</v>
+      <c r="D17" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C18" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C19" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C20" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>63</v>
+      <c r="D20" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C21" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="D21" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+      <c r="B24" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="9" t="s">
+    </row>
+    <row r="26" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+      <c r="B26" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="D26" s="5">
+        <f>C5+1</f>
+        <v>5</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+      <c r="B27" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="9" t="s">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+      <c r="B28" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="9" t="s">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
+      <c r="B29" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="9" t="s">
+    </row>
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="5">
+        <f>C7+1</f>
+        <v>7</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
+      <c r="B31" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="9" t="s">
+    </row>
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+      <c r="B32" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>107</v>
+      <c r="D32" s="5">
+        <f>C9+1</f>
+        <v>9</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -4365,98 +7472,98 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -4471,4 +7578,917 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F207CE-EEFA-450F-9D48-195999CAF4D3}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>215</v>
+      </c>
+      <c r="B1">
+        <v>34</v>
+      </c>
+      <c r="C1">
+        <f>B1/215</f>
+        <v>0.15813953488372093</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="27"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>34</v>
+      </c>
+      <c r="B8" s="5">
+        <v>215</v>
+      </c>
+      <c r="C8" s="5">
+        <v>91</v>
+      </c>
+      <c r="D8" s="5">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
+        <f>A8/SUM(A8:B8)</f>
+        <v>0.13654618473895583</v>
+      </c>
+      <c r="B9" s="17">
+        <f>B8/SUM(A8:B8)</f>
+        <v>0.86345381526104414</v>
+      </c>
+      <c r="C9" s="17">
+        <f>C8/SUM(C8:D8)</f>
+        <v>0.36546184738955823</v>
+      </c>
+      <c r="D9" s="17">
+        <f>D8/SUM(C8:D8)</f>
+        <v>0.63453815261044177</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A9 D9" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D14F22-6496-457C-B9E9-685EB3C77F0D}">
+  <dimension ref="A1:O44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="14" max="14" width="29.33203125" customWidth="1"/>
+    <col min="15" max="15" width="41.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="12"/>
+      <c r="B1" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="12">
+        <v>53</v>
+      </c>
+      <c r="C3" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="12">
+        <v>19</v>
+      </c>
+      <c r="C4" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="29">
+        <f>SUM(B3,C4)/SUM(B3:C4)</f>
+        <v>0.6987951807228916</v>
+      </c>
+      <c r="C5" s="29"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="F8" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="12">
+        <v>64</v>
+      </c>
+      <c r="C10" s="12">
+        <v>7</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="12">
+        <v>8</v>
+      </c>
+      <c r="C11" s="12">
+        <v>4</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="29">
+        <f>SUM(B10,C11)/SUM(B10:C11)</f>
+        <v>0.81927710843373491</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="F12" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F13" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F14" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F15" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F16" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F17" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F18" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+    </row>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F19" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+    </row>
+    <row r="20" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F20" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F21" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+    </row>
+    <row r="22" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F22" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F23" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F24" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+    </row>
+    <row r="25" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F25" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F26" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+    </row>
+    <row r="27" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F27" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+    </row>
+    <row r="28" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F28" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+    </row>
+    <row r="29" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F29" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F30" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+    </row>
+    <row r="31" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F31" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F32" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N35" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="12"/>
+      <c r="B36" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="30"/>
+      <c r="N36" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" s="12">
+        <v>64</v>
+      </c>
+      <c r="C38" s="12">
+        <v>6</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="12">
+        <v>8</v>
+      </c>
+      <c r="C39" s="12">
+        <v>5</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40" s="29">
+        <f>SUM(B38,C39)/SUM(B38:C39)</f>
+        <v>0.83132530120481929</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="N40" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N41" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N42" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N43" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="O43" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B36:C36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D433D18B-9CF9-483D-AE06-E91F9B498CDF}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="32.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="12"/>
+      <c r="B1" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="12">
+        <v>67</v>
+      </c>
+      <c r="C3" s="12">
+        <v>7</v>
+      </c>
+      <c r="H3" s="32">
+        <v>1</v>
+      </c>
+      <c r="I3" s="32">
+        <v>85.542169999999999</v>
+      </c>
+      <c r="J3" s="32">
+        <v>88.636359999999996</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="12">
+        <v>5</v>
+      </c>
+      <c r="C4" s="12">
+        <v>4</v>
+      </c>
+      <c r="H4" s="32">
+        <v>2</v>
+      </c>
+      <c r="I4" s="32">
+        <v>84.337350000000001</v>
+      </c>
+      <c r="J4" s="32">
+        <v>86.426770000000005</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="29">
+        <f>SUM(B3,C4)/SUM(B3:C4)</f>
+        <v>0.85542168674698793</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="H5" s="32">
+        <v>3</v>
+      </c>
+      <c r="I5" s="32">
+        <v>84.337350000000001</v>
+      </c>
+      <c r="J5" s="32">
+        <v>85.984849999999994</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H6" s="32">
+        <v>4</v>
+      </c>
+      <c r="I6" s="32">
+        <v>84.337350000000001</v>
+      </c>
+      <c r="J6" s="32">
+        <v>79.545450000000002</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="30"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="12">
+        <v>66</v>
+      </c>
+      <c r="C12" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="12">
+        <v>6</v>
+      </c>
+      <c r="C13" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="29">
+        <f>SUM(B12,C13)/SUM(B12:C13)</f>
+        <v>0.84337349397590367</v>
+      </c>
+      <c r="C14" s="29"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="30"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="12">
+        <v>66</v>
+      </c>
+      <c r="C21" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="12">
+        <v>6</v>
+      </c>
+      <c r="C22" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="29">
+        <f>SUM(B21,C22)/SUM(B21:C22)</f>
+        <v>0.84337349397590367</v>
+      </c>
+      <c r="C23" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B23:C23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC64DDE-0857-4BC0-9FEC-5901E9ECC32B}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.85542169999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.83130000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.74698799999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.77108429999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.69879519999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.88636360000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.75378789999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>190</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.79545449999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.62752529999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.53093429999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/CapsStone/Project-Report/Project-Report-addons.xlsx
+++ b/CapsStone/Project-Report/Project-Report-addons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aamol\Repos\GithubRepos\msdatascience\msdatascience\CapsStone\Project Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF259A3F-9001-4C52-8E77-26B993E08AE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F28CA49-4529-4B4D-8521-870FD928DC37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="203">
   <si>
     <t>Logisitic Regression</t>
   </si>
@@ -311,9 +311,6 @@
     <t>Return on equity ratio</t>
   </si>
   <si>
-    <t>Wprking capital ratio</t>
-  </si>
-  <si>
     <t>Variable</t>
   </si>
   <si>
@@ -621,6 +618,39 @@
   </si>
   <si>
     <t>Glmnet (Ridge regression)</t>
+  </si>
+  <si>
+    <t>restm_nopi_mag</t>
+  </si>
+  <si>
+    <t>sstk</t>
+  </si>
+  <si>
+    <t>de_ratio</t>
+  </si>
+  <si>
+    <t>npoi</t>
+  </si>
+  <si>
+    <t>trfd_m</t>
+  </si>
+  <si>
+    <t>csho</t>
+  </si>
+  <si>
+    <t>Restement magnitude for Nonoperating Income (Expense)</t>
+  </si>
+  <si>
+    <t>Common Shares Outstanding</t>
+  </si>
+  <si>
+    <t>Sale of Common and Preferred Stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nonoperating Income (Expense)</t>
+  </si>
+  <si>
+    <t>Importance Value</t>
   </si>
 </sst>
 </file>
@@ -843,7 +873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -857,7 +887,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -879,6 +908,12 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -904,12 +939,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6177,14 +6214,14 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>0.83132530000000004</v>
       </c>
       <c r="C2" s="1">
@@ -7029,8 +7066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D96FAC2-DC0D-4E40-A0E9-84734552950F}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C1:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7038,541 +7075,712 @@
     <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.44140625" customWidth="1"/>
     <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.21875" customWidth="1"/>
+    <col min="5" max="5" width="53.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C1" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="7" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C2" s="5">
-        <f>C23+1</f>
+      <c r="F1" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C2" s="14">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="34" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C3" s="5">
-        <f t="shared" ref="C3:C21" si="0">C2+1</f>
+      <c r="F2" s="36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C3" s="14">
+        <f t="shared" ref="C3:C26" si="0">C2+1</f>
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="14" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F3" s="36">
+        <v>79.419404044566207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="5">
+      <c r="C4" s="14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="14" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C5" s="5">
+      <c r="F4" s="36">
+        <v>75.6368392890179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C5" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="34" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C6" s="5">
+      <c r="F5" s="36">
+        <v>54.023193069382501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C6" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>138</v>
+      <c r="D6" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="36">
+        <v>51.347698658887602</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C7" s="5">
+      <c r="C7" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="14" t="s">
         <v>85</v>
+      </c>
+      <c r="F7" s="36">
+        <v>50.552160313428402</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C8" s="5">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C8" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="34" t="s">
         <v>83</v>
       </c>
+      <c r="F8" s="36">
+        <v>48.270251035754697</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C9" s="5">
+      <c r="C9" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="34" t="s">
         <v>82</v>
+      </c>
+      <c r="F9" s="36">
+        <v>46.503194830885597</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C10" s="5">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C10" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C11" s="5">
+      <c r="D10" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="36">
+        <v>45.425925946469199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C11" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="34" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C12" s="5">
+      <c r="F11" s="36">
+        <v>43.1477802278811</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C12" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="34" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C13" s="5">
+      <c r="F12" s="36">
+        <v>39.966131182752399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C13" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="34" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F13" s="36">
+        <v>39.917185640705199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="C14" s="5">
+      <c r="C14" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="14" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C15" s="5">
+      <c r="F14" s="36">
+        <v>35.975118062265501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C15" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="34" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C16" s="5">
+      <c r="F15" s="36">
+        <v>35.231189095811899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C16" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="34" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C17" s="5">
+      <c r="F16" s="36">
+        <v>33.539740688030001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="34" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C18" s="5">
+      <c r="F17" s="36">
+        <v>33.099310039695702</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="34" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C19" s="5">
+      <c r="F18" s="36">
+        <v>31.1518850864536</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="14">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="34" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C20" s="5">
+      <c r="F19" s="36">
+        <v>30.910892430815998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="14">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="34" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C21" s="5">
+      <c r="F20" s="36">
+        <v>29.365603588550499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="14">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>139</v>
+      <c r="D21" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="36">
+        <v>28.3540475307537</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="14">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="F22" s="36">
+        <v>26.275918825074001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="14">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="F23" s="36">
+        <v>24.4141119578148</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>91</v>
+      <c r="C24" s="14">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="36">
+        <v>20.941424368782101</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="C25" s="14">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="36">
+        <v>20.836522072360001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+      <c r="B26" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="C26" s="14">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="F26" s="36">
+        <v>20.237719735476801</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="5">
-        <f>C5+1</f>
-        <v>5</v>
-      </c>
-      <c r="E26" s="6" t="s">
+      <c r="B27" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="14">
+        <f>C26+1</f>
+        <v>26</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="F27" s="36">
+        <v>20.035942892504998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="14">
+        <f>C27+1</f>
+        <v>27</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="36">
+        <v>19.631536992822301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="14">
+        <f>C28+1</f>
+        <v>28</v>
+      </c>
+      <c r="D29" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="E29" s="34" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="9" t="s">
+      <c r="F29" s="36">
+        <v>19.611764948525401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="14">
+        <f>C29+1</f>
+        <v>29</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="36">
+        <v>19.411122985139201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="5">
-        <f>C7+1</f>
-        <v>7</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="B31" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="14">
+        <f>C30+1</f>
+        <v>30</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="F31" s="36">
+        <v>17.303323591554701</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="5">
-        <f>C9+1</f>
-        <v>9</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54" s="12" t="s">
+      <c r="B55" s="11" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>131</v>
-      </c>
-    </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7609,35 +7817,35 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="28"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="27"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="B7" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>142</v>
-      </c>
       <c r="C7" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -7655,19 +7863,19 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <f>A8/SUM(A8:B8)</f>
         <v>0.13654618473895583</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <f>B8/SUM(A8:B8)</f>
         <v>0.86345381526104414</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <f>C8/SUM(C8:D8)</f>
         <v>0.36546184738955823</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
         <f>D8/SUM(C8:D8)</f>
         <v>0.63453815261044177</v>
       </c>
@@ -7702,338 +7910,338 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="12"/>
-      <c r="B1" s="30" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="31"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="11">
+        <v>53</v>
+      </c>
+      <c r="C3" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="11">
+        <v>19</v>
+      </c>
+      <c r="C4" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="30"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="12">
-        <v>53</v>
-      </c>
-      <c r="C3" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="12">
-        <v>19</v>
-      </c>
-      <c r="C4" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="29">
+      <c r="B5" s="30">
         <f>SUM(B3,C4)/SUM(B3:C4)</f>
         <v>0.6987951807228916</v>
       </c>
-      <c r="C5" s="29"/>
+      <c r="C5" s="30"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="30" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="F8" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="11">
+        <v>64</v>
+      </c>
+      <c r="C10" s="11">
+        <v>7</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="11">
+        <v>4</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="F8" s="13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" s="12">
-        <v>64</v>
-      </c>
-      <c r="C10" s="12">
-        <v>7</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B11" s="12">
-        <v>8</v>
-      </c>
-      <c r="C11" s="12">
-        <v>4</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="B12" s="29">
+      <c r="B12" s="30">
         <f>SUM(B10,C11)/SUM(B10:C11)</f>
         <v>0.81927710843373491</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="F12" s="13" t="s">
+      <c r="C12" s="30"/>
+      <c r="F12" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F13" s="20" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F13" s="21" t="s">
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F14" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F14" s="21" t="s">
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F15" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F15" s="21" t="s">
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F16" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F16" s="13" t="s">
+    </row>
+    <row r="17" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F17" s="12" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F17" s="13" t="s">
+    <row r="18" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F18" s="20" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="18" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F18" s="21" t="s">
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+    </row>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F19" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-    </row>
-    <row r="19" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F19" s="21" t="s">
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+    </row>
+    <row r="20" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F20" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-    </row>
-    <row r="20" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F20" s="13" t="s">
+    </row>
+    <row r="21" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F21" s="20" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="21" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F21" s="21" t="s">
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+    </row>
+    <row r="22" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F22" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-    </row>
-    <row r="22" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F22" s="13" t="s">
+    </row>
+    <row r="23" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F23" s="12" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F23" s="13" t="s">
+    <row r="24" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F24" s="20" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="24" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F24" s="21" t="s">
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+    </row>
+    <row r="25" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F25" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-    </row>
-    <row r="25" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F25" s="13" t="s">
+    </row>
+    <row r="26" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F26" s="20" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="26" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F26" s="21" t="s">
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+    </row>
+    <row r="27" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F27" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-    </row>
-    <row r="27" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F27" s="21" t="s">
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+    </row>
+    <row r="28" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F28" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-    </row>
-    <row r="28" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F28" s="21" t="s">
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+    </row>
+    <row r="29" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F29" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-    </row>
-    <row r="29" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F29" s="13" t="s">
+    </row>
+    <row r="30" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F30" s="20" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="30" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F30" s="21" t="s">
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+    </row>
+    <row r="31" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F31" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-    </row>
-    <row r="31" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F31" s="13" t="s">
+    </row>
+    <row r="32" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F32" s="12" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F32" s="13" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N35" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
-      <c r="B36" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="C36" s="30"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="31"/>
       <c r="N36" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O36" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="O36" s="6" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="37" spans="1:15" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B37" s="18" t="s">
+      <c r="A37" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="17" t="s">
         <v>141</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>142</v>
       </c>
       <c r="N37" s="6" t="s">
         <v>54</v>
@@ -8043,30 +8251,30 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="11">
+        <v>64</v>
+      </c>
+      <c r="C38" s="11">
+        <v>6</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="B38" s="12">
-        <v>64</v>
-      </c>
-      <c r="C38" s="12">
-        <v>6</v>
-      </c>
-      <c r="N38" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="O38" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B39" s="12">
+      <c r="B39" s="11">
         <v>8</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="11">
         <v>5</v>
       </c>
       <c r="N39" s="5" t="s">
@@ -8077,14 +8285,14 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="B40" s="29">
+      <c r="A40" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" s="30">
         <f>SUM(B38,C39)/SUM(B38:C39)</f>
         <v>0.83132530120481929</v>
       </c>
-      <c r="C40" s="29"/>
+      <c r="C40" s="30"/>
       <c r="N40" s="5" t="s">
         <v>66</v>
       </c>
@@ -8097,23 +8305,23 @@
         <v>67</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="N42" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="O42" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="O42" s="5" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="N43" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
@@ -8153,225 +8361,225 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="12"/>
-      <c r="B1" s="30" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="31"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="11">
+        <v>67</v>
+      </c>
+      <c r="C3" s="11">
+        <v>7</v>
+      </c>
+      <c r="H3" s="22">
+        <v>1</v>
+      </c>
+      <c r="I3" s="22">
+        <v>85.542169999999999</v>
+      </c>
+      <c r="J3" s="22">
+        <v>88.636359999999996</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="11">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11">
+        <v>4</v>
+      </c>
+      <c r="H4" s="22">
+        <v>2</v>
+      </c>
+      <c r="I4" s="22">
+        <v>84.337350000000001</v>
+      </c>
+      <c r="J4" s="22">
+        <v>86.426770000000005</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="30"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="12">
-        <v>67</v>
-      </c>
-      <c r="C3" s="12">
-        <v>7</v>
-      </c>
-      <c r="H3" s="32">
-        <v>1</v>
-      </c>
-      <c r="I3" s="32">
-        <v>85.542169999999999</v>
-      </c>
-      <c r="J3" s="32">
-        <v>88.636359999999996</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="12">
-        <v>5</v>
-      </c>
-      <c r="C4" s="12">
-        <v>4</v>
-      </c>
-      <c r="H4" s="32">
-        <v>2</v>
-      </c>
-      <c r="I4" s="32">
-        <v>84.337350000000001</v>
-      </c>
-      <c r="J4" s="32">
-        <v>86.426770000000005</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="29">
+      <c r="B5" s="30">
         <f>SUM(B3,C4)/SUM(B3:C4)</f>
         <v>0.85542168674698793</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="H5" s="32">
+      <c r="C5" s="30"/>
+      <c r="H5" s="22">
         <v>3</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="22">
         <v>84.337350000000001</v>
       </c>
-      <c r="J5" s="32">
+      <c r="J5" s="22">
         <v>85.984849999999994</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H6" s="22">
+        <v>4</v>
+      </c>
+      <c r="I6" s="22">
+        <v>84.337350000000001</v>
+      </c>
+      <c r="J6" s="22">
+        <v>79.545450000000002</v>
+      </c>
+      <c r="K6" s="22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="H6" s="32">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="31"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="11">
+        <v>66</v>
+      </c>
+      <c r="C12" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="11">
+        <v>6</v>
+      </c>
+      <c r="C13" s="11">
         <v>4</v>
       </c>
-      <c r="I6" s="32">
-        <v>84.337350000000001</v>
-      </c>
-      <c r="J6" s="32">
-        <v>79.545450000000002</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="30" t="s">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="C10" s="30"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" s="12">
-        <v>66</v>
-      </c>
-      <c r="C12" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B13" s="12">
-        <v>6</v>
-      </c>
-      <c r="C13" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="B14" s="29">
+      <c r="B14" s="30">
         <f>SUM(B12,C13)/SUM(B12:C13)</f>
         <v>0.84337349397590367</v>
       </c>
-      <c r="C14" s="29"/>
+      <c r="C14" s="30"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="30" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="31"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" s="11">
+        <v>66</v>
+      </c>
+      <c r="C21" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="11">
+        <v>6</v>
+      </c>
+      <c r="C22" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="30"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="B21" s="12">
-        <v>66</v>
-      </c>
-      <c r="C21" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" s="12">
-        <v>6</v>
-      </c>
-      <c r="C22" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="B23" s="29">
+      <c r="B23" s="30">
         <f>SUM(B21,C22)/SUM(B21:C22)</f>
         <v>0.84337349397590367</v>
       </c>
-      <c r="C23" s="29"/>
+      <c r="C23" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8381,7 +8589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC64DDE-0857-4BC0-9FEC-5901E9ECC32B}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
@@ -8393,15 +8601,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="1">
         <v>0.85542169999999995</v>
@@ -8409,7 +8617,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="1">
         <v>0.83130000000000004</v>
@@ -8417,7 +8625,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B4" s="1">
         <v>0.74698799999999999</v>
@@ -8425,7 +8633,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B5" s="1">
         <v>0.77108429999999994</v>
@@ -8433,7 +8641,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" s="1">
         <v>0.69879519999999995</v>
@@ -8441,15 +8649,15 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B23" s="1">
         <v>0.88636360000000003</v>
@@ -8457,7 +8665,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B24" s="1">
         <v>0.75378789999999996</v>
@@ -8465,7 +8673,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B25" s="1">
         <v>0.79545449999999995</v>
@@ -8473,7 +8681,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B26" s="1">
         <v>0.62752529999999995</v>
@@ -8481,7 +8689,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B27" s="1">
         <v>0.53093429999999997</v>

--- a/CapsStone/Project-Report/Project-Report-addons.xlsx
+++ b/CapsStone/Project-Report/Project-Report-addons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aamol\Repos\GithubRepos\msdatascience\msdatascience\CapsStone\Project Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F28CA49-4529-4B4D-8521-870FD928DC37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B16FAC-FDBF-4425-9A7D-94F63643E1F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="Logistic regession" sheetId="6" r:id="rId7"/>
     <sheet name="Random Forest" sheetId="7" r:id="rId8"/>
     <sheet name="Sheet7" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet5" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet8" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet9" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="278">
   <si>
     <t>Logisitic Regression</t>
   </si>
@@ -651,13 +654,238 @@
   </si>
   <si>
     <t>Importance Value</t>
+  </si>
+  <si>
+    <t>Percentage correct</t>
+  </si>
+  <si>
+    <t>gvkey</t>
+  </si>
+  <si>
+    <t>tic</t>
+  </si>
+  <si>
+    <t>aqc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">csho  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">epspi </t>
+  </si>
+  <si>
+    <t>siv</t>
+  </si>
+  <si>
+    <t>trfm_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp_rating_target     </t>
+  </si>
+  <si>
+    <t>litigated</t>
+  </si>
+  <si>
+    <t>litigation_settlement</t>
+  </si>
+  <si>
+    <t>restmt_at_target</t>
+  </si>
+  <si>
+    <t>restmt_capx_target</t>
+  </si>
+  <si>
+    <t>restmt_cogs_target</t>
+  </si>
+  <si>
+    <t>restmt_dltt_target</t>
+  </si>
+  <si>
+    <t>restmt_epspi_target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restmt_ib_target     </t>
+  </si>
+  <si>
+    <t>restmt_ni_target</t>
+  </si>
+  <si>
+    <t>restmt_nopi_target</t>
+  </si>
+  <si>
+    <t>restmt_reuna_target</t>
+  </si>
+  <si>
+    <t>restmt_teq_target</t>
+  </si>
+  <si>
+    <t>restmt_txt_target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restmt_wcap_target   </t>
+  </si>
+  <si>
+    <t>restmt_xint_target</t>
+  </si>
+  <si>
+    <t>restmt_at_mag</t>
+  </si>
+  <si>
+    <t>restmt_capx_mag</t>
+  </si>
+  <si>
+    <t>restmt_epspi_mag</t>
+  </si>
+  <si>
+    <t>restmt_ni_mag</t>
+  </si>
+  <si>
+    <t>restmt_nopi_mag</t>
+  </si>
+  <si>
+    <t>restmt_reuna_mag</t>
+  </si>
+  <si>
+    <t>restmt_teq_mag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restmt_txt_mag </t>
+  </si>
+  <si>
+    <t xml:space="preserve">restmt_wcap_mag </t>
+  </si>
+  <si>
+    <t>restmt_xint_mag</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>',</t>
+  </si>
+  <si>
+    <t>Acquisitions</t>
+  </si>
+  <si>
+    <t>Global Company Key</t>
+  </si>
+  <si>
+    <t>Sale of Investments</t>
+  </si>
+  <si>
+    <t>Ticker Symbol</t>
+  </si>
+  <si>
+    <t># DE ==&gt; Debt to equity ratio</t>
+  </si>
+  <si>
+    <t>Target Variable</t>
+  </si>
+  <si>
+    <t>Litigation settlement amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ib     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wcap   </t>
+  </si>
+  <si>
+    <t>cogs,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">txt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wcap </t>
+  </si>
+  <si>
+    <t>Indicating if restamenet for - Assets - Total</t>
+  </si>
+  <si>
+    <t>Restatement Magnitude for - Interest and Related Expense - Total</t>
+  </si>
+  <si>
+    <t>Restatement Magnitude for - Capital Expenditures</t>
+  </si>
+  <si>
+    <t>Restatement Magnitude for - Cost of Goods Sold</t>
+  </si>
+  <si>
+    <t>Restatement Magnitude for - Earnings Per Share (Basic) - Including Extraordinary Items</t>
+  </si>
+  <si>
+    <t>Restatement Magnitude for - Net Income (Loss)</t>
+  </si>
+  <si>
+    <t>Restatement Magnitude for - Nonoperating Income (Expense)</t>
+  </si>
+  <si>
+    <t>Restatement Magnitude for - Retained Earnings - Unadjusted</t>
+  </si>
+  <si>
+    <t>Restatement Magnitude for - Stockholders Equity - Total</t>
+  </si>
+  <si>
+    <t>Restatement Magnitude for - Income Taxes - Total</t>
+  </si>
+  <si>
+    <t>Restatement Magnitude for - Working Capital (Balance Sheet)</t>
+  </si>
+  <si>
+    <t>Restatment indicator for Capital Expenditures</t>
+  </si>
+  <si>
+    <t>Restatment indicator for Cost of Goods Sold</t>
+  </si>
+  <si>
+    <t>Restatment indicator for Long-Term Debt - Total</t>
+  </si>
+  <si>
+    <t>Restatment indicator for Earnings Per Share (Basic) - Including Extraordinary Items</t>
+  </si>
+  <si>
+    <t>Restatment indicator for Income Before Extraordinary Items</t>
+  </si>
+  <si>
+    <t>Restatment indicator for Net Income (Loss)</t>
+  </si>
+  <si>
+    <t>Restatment indicator for Nonoperating Income (Expense)</t>
+  </si>
+  <si>
+    <t>Restatment indicator for Retained Earnings - Unadjusted</t>
+  </si>
+  <si>
+    <t>Restatment indicator for Stockholders Equity - Total</t>
+  </si>
+  <si>
+    <t>Restatment indicator for Income Taxes - Total</t>
+  </si>
+  <si>
+    <t>Restatment indicator for Working Capital (Balance Sheet)</t>
+  </si>
+  <si>
+    <t>Restatment indicator for Interest and Related Expense - Total</t>
+  </si>
+  <si>
+    <t>Variable name</t>
+  </si>
+  <si>
+    <t>Variable description</t>
+  </si>
+  <si>
+    <t>restmt_cogs_mag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -740,6 +968,14 @@
       <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -873,7 +1109,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -905,7 +1141,6 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -914,6 +1149,21 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="8" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="13" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -932,21 +1182,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6280,6 +6521,1902 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6193430F-A993-4025-A7D9-47532EB24AB3}">
+  <dimension ref="A1:H64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection sqref="A1:C64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="21">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="21">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="21">
+        <f t="shared" ref="A4:A64" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="21">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="H6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="21">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="21">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="21">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="21">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="21">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="21">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="21">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="H17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="21">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="21">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="H20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="21">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="21">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="21">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="21">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="21">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="21">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="21">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="H28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="21">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="21">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="21">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="H31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="21">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="21">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="H33" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="21">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="21">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="H35" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="21">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="21">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="H37" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="21">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H38" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="21">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="21">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="21">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="21">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="21">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="H43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="21">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="21">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="H45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="21">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="21">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="H47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="21">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="H48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="21">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="H49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="21">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="H50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="21">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="H51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="21">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="21">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="H53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="21">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="21">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="H55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="21">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="21">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="H57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="21">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="21">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="H59" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="21">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="21">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="H61" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="21">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="21">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="H63" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="21">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="H64" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B40">
+    <sortCondition ref="B5:B40"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4393653F-6D49-4BBE-A367-64DE6E0494FC}">
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" t="str">
+        <f>_xlfn.CONCAT(A1:C1)</f>
+        <v>'aco',</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D39" si="0">_xlfn.CONCAT(A2:C2)</f>
+        <v>'acominc',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>'ao',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>'aoloch',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>'aqc',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>'bkvlps',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>'caps',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>'ch ',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>'chech',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>'csho  ',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>'cshtrd_m',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>'cstk',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>'de_ratio',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>'dlc',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>'dltt',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>'dvt',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>'ebit',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>'epspi ',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>'gvkey',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>'litigated',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>'litigation_settlement',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>'nopi',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>'pe_ratio',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>'prccd_m',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>'prcod_m',</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>'re',</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>'rect',</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>'revt',</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>'roe_ratio',</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B30" t="s">
+        <v>210</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>'siv',</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B31" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>'sp_rating_target     ',</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B32" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>'sstk',</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>'teq',</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B34" t="s">
+        <v>205</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>'tic',</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B35" t="s">
+        <v>196</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>'trfd_m',</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B36" t="s">
+        <v>211</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>'trfm_m',</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>'tstk',</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>'wc_ratio',</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>'wcap',</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DFE4E2-E7B6-4CA2-8DEE-C35AF4937CEC}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" t="str">
+        <f>_xlfn.CONCAT(A1:C1)</f>
+        <v>'at',</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D24" si="0">_xlfn.CONCAT(A2:C2)</f>
+        <v>'at',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>'capx',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>'capx',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>'cogs',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>'cogs,',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>'dltt',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>'epspi',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>'epspi',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>'ib     ',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>'ni',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>'ni',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>'nopi',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>'nopi',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>'reuna',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>'reuna',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>'teq',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>'teq',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>'txt',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>'txt ',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" t="s">
+        <v>251</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>'wcap ',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B22" t="s">
+        <v>248</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>'wcap   ',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>'xint',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>'xint',</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:B24">
+    <sortCondition ref="B1:B24"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0D2643-6ADB-4CD1-8D10-E2A4A4088E6B}">
   <dimension ref="A1"/>
@@ -7066,7 +9203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D96FAC2-DC0D-4E40-A0E9-84734552950F}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C1:F31"/>
     </sheetView>
   </sheetViews>
@@ -7097,13 +9234,13 @@
       <c r="C2" s="14">
         <v>1</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="28">
         <v>100</v>
       </c>
     </row>
@@ -7118,7 +9255,7 @@
       <c r="E3" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="28">
         <v>79.419404044566207</v>
       </c>
     </row>
@@ -7135,7 +9272,7 @@
       <c r="E4" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="28">
         <v>75.6368392890179</v>
       </c>
     </row>
@@ -7144,13 +9281,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="28">
         <v>54.023193069382501</v>
       </c>
     </row>
@@ -7165,7 +9302,7 @@
       <c r="E6" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="28">
         <v>51.347698658887602</v>
       </c>
     </row>
@@ -7174,13 +9311,13 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="26" t="s">
         <v>53</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="28">
         <v>50.552160313428402</v>
       </c>
       <c r="I7" s="5"/>
@@ -7192,13 +9329,13 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="28">
         <v>48.270251035754697</v>
       </c>
     </row>
@@ -7210,10 +9347,10 @@
       <c r="D9" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="28">
         <v>46.503194830885597</v>
       </c>
       <c r="I9" s="5"/>
@@ -7224,13 +9361,13 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="26" t="s">
         <v>133</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="28">
         <v>45.425925946469199</v>
       </c>
     </row>
@@ -7239,13 +9376,13 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="28">
         <v>43.1477802278811</v>
       </c>
     </row>
@@ -7254,13 +9391,13 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="28">
         <v>39.966131182752399</v>
       </c>
     </row>
@@ -7269,13 +9406,13 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="28">
         <v>39.917185640705199</v>
       </c>
     </row>
@@ -7291,7 +9428,7 @@
       <c r="E14" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="28">
         <v>35.975118062265501</v>
       </c>
     </row>
@@ -7300,13 +9437,13 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="28">
         <v>35.231189095811899</v>
       </c>
     </row>
@@ -7315,13 +9452,13 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="28">
         <v>33.539740688030001</v>
       </c>
     </row>
@@ -7333,10 +9470,10 @@
       <c r="D17" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="28">
         <v>33.099310039695702</v>
       </c>
     </row>
@@ -7345,13 +9482,13 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="28">
         <v>31.1518850864536</v>
       </c>
     </row>
@@ -7360,13 +9497,13 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="28">
         <v>30.910892430815998</v>
       </c>
     </row>
@@ -7375,13 +9512,13 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="28">
         <v>29.365603588550499</v>
       </c>
     </row>
@@ -7390,13 +9527,13 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="26" t="s">
         <v>135</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="28">
         <v>28.3540475307537</v>
       </c>
     </row>
@@ -7405,13 +9542,13 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22" s="28">
         <v>26.275918825074001</v>
       </c>
     </row>
@@ -7420,13 +9557,13 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="28">
         <v>24.4141119578148</v>
       </c>
     </row>
@@ -7441,13 +9578,13 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="28">
         <v>20.941424368782101</v>
       </c>
     </row>
@@ -7455,20 +9592,20 @@
       <c r="A25" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="25" t="s">
         <v>93</v>
       </c>
       <c r="C25" s="14">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="28">
         <v>20.836522072360001</v>
       </c>
     </row>
@@ -7476,20 +9613,20 @@
       <c r="A26" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="25" t="s">
         <v>95</v>
       </c>
       <c r="C26" s="14">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="F26" s="36">
+      <c r="F26" s="28">
         <v>20.237719735476801</v>
       </c>
     </row>
@@ -7497,20 +9634,20 @@
       <c r="A27" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="25" t="s">
         <v>97</v>
       </c>
       <c r="C27" s="14">
         <f>C26+1</f>
         <v>26</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="28">
         <v>20.035942892504998</v>
       </c>
     </row>
@@ -7518,20 +9655,20 @@
       <c r="A28" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="25" t="s">
         <v>99</v>
       </c>
       <c r="C28" s="14">
         <f>C27+1</f>
         <v>27</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="F28" s="36">
+      <c r="F28" s="28">
         <v>19.631536992822301</v>
       </c>
     </row>
@@ -7539,20 +9676,20 @@
       <c r="A29" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="25" t="s">
         <v>101</v>
       </c>
       <c r="C29" s="14">
         <f>C28+1</f>
         <v>28</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="34" t="s">
+      <c r="E29" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F29" s="28">
         <v>19.611764948525401</v>
       </c>
     </row>
@@ -7560,20 +9697,20 @@
       <c r="A30" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="25" t="s">
         <v>79</v>
       </c>
       <c r="C30" s="14">
         <f>C29+1</f>
         <v>29</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="E30" s="34" t="s">
+      <c r="E30" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="36">
+      <c r="F30" s="28">
         <v>19.411122985139201</v>
       </c>
     </row>
@@ -7581,20 +9718,20 @@
       <c r="A31" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="25" t="s">
         <v>103</v>
       </c>
       <c r="C31" s="14">
         <f>C30+1</f>
         <v>30</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="D31" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="E31" s="34" t="s">
+      <c r="E31" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="F31" s="36">
+      <c r="F31" s="28">
         <v>17.303323591554701</v>
       </c>
     </row>
@@ -7602,12 +9739,12 @@
       <c r="A32" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
       <c r="F32" s="14"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -7817,22 +9954,22 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="28"/>
+      <c r="D6" s="36"/>
     </row>
     <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
@@ -7897,24 +10034,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D14F22-6496-457C-B9E9-685EB3C77F0D}">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:C40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="11.21875" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="29.33203125" customWidth="1"/>
     <col min="15" max="15" width="41.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="11"/>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="31"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="24" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
@@ -7926,6 +10067,7 @@
       <c r="C2" s="17" t="s">
         <v>141</v>
       </c>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
@@ -7937,6 +10079,10 @@
       <c r="C3" s="11">
         <v>6</v>
       </c>
+      <c r="D3" s="29">
+        <f>B3/(SUM(B3:C3))</f>
+        <v>0.89830508474576276</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
@@ -7948,27 +10094,35 @@
       <c r="C4" s="11">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="D4" s="29">
+        <f>C4/(SUM(B4:C4))</f>
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="30">
         <f>SUM(B3,C4)/SUM(B3:C4)</f>
         <v>0.6987951807228916</v>
       </c>
-      <c r="C5" s="30"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="31"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="24" t="s">
+        <v>203</v>
+      </c>
       <c r="F8" s="12" t="s">
         <v>147</v>
       </c>
@@ -7983,6 +10137,7 @@
       <c r="C9" s="17" t="s">
         <v>141</v>
       </c>
+      <c r="D9" s="17"/>
       <c r="F9" s="12" t="s">
         <v>148</v>
       </c>
@@ -7997,6 +10152,10 @@
       <c r="C10" s="11">
         <v>7</v>
       </c>
+      <c r="D10" s="29">
+        <f>B10/(SUM(B10:C10))</f>
+        <v>0.90140845070422537</v>
+      </c>
       <c r="F10" s="12" t="s">
         <v>149</v>
       </c>
@@ -8011,65 +10170,70 @@
       <c r="C11" s="11">
         <v>4</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="D11" s="29">
+        <f>C11/(SUM(B11:C11))</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+    </row>
+    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="30">
         <f>SUM(B10,C11)/SUM(B10:C11)</f>
         <v>0.81927710843373491</v>
       </c>
-      <c r="C12" s="30"/>
       <c r="F12" s="12" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F16" s="12" t="s">
@@ -8082,28 +10246,28 @@
       </c>
     </row>
     <row r="18" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
     </row>
     <row r="19" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
     </row>
     <row r="20" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F20" s="12" t="s">
@@ -8111,16 +10275,16 @@
       </c>
     </row>
     <row r="21" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
     </row>
     <row r="22" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F22" s="12" t="s">
@@ -8133,16 +10297,16 @@
       </c>
     </row>
     <row r="24" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
     </row>
     <row r="25" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F25" s="12" t="s">
@@ -8150,40 +10314,40 @@
       </c>
     </row>
     <row r="26" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
     </row>
     <row r="27" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
     </row>
     <row r="28" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
     </row>
     <row r="29" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F29" s="12" t="s">
@@ -8191,16 +10355,16 @@
       </c>
     </row>
     <row r="30" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
     </row>
     <row r="31" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F31" s="12" t="s">
@@ -8220,12 +10384,15 @@
         <v>172</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="C36" s="31"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="24" t="s">
+        <v>203</v>
+      </c>
       <c r="N36" s="6" t="s">
         <v>106</v>
       </c>
@@ -8243,6 +10410,7 @@
       <c r="C37" s="17" t="s">
         <v>141</v>
       </c>
+      <c r="D37" s="17"/>
       <c r="N37" s="6" t="s">
         <v>54</v>
       </c>
@@ -8260,6 +10428,10 @@
       <c r="C38" s="11">
         <v>6</v>
       </c>
+      <c r="D38" s="29">
+        <f>B38/(SUM(B38:C38))</f>
+        <v>0.91428571428571426</v>
+      </c>
       <c r="N38" s="6" t="s">
         <v>175</v>
       </c>
@@ -8277,6 +10449,10 @@
       <c r="C39" s="11">
         <v>5</v>
       </c>
+      <c r="D39" s="29">
+        <f>C39/(SUM(B39:C39))</f>
+        <v>0.38461538461538464</v>
+      </c>
       <c r="N39" s="5" t="s">
         <v>52</v>
       </c>
@@ -8284,15 +10460,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="19" t="s">
+    <row r="40" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="B40" s="30">
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="30">
         <f>SUM(B38,C39)/SUM(B38:C39)</f>
         <v>0.83132530120481929</v>
       </c>
-      <c r="C40" s="30"/>
       <c r="N40" s="5" t="s">
         <v>66</v>
       </c>
@@ -8329,16 +10506,14 @@
       <c r="O44" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B40:C40"/>
+  <mergeCells count="4">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8347,7 +10522,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:K6"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8355,6 +10530,7 @@
     <col min="1" max="1" width="11.109375" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" customWidth="1"/>
     <col min="3" max="3" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5546875" customWidth="1"/>
     <col min="10" max="10" width="14.44140625" customWidth="1"/>
     <col min="11" max="11" width="32.5546875" customWidth="1"/>
@@ -8362,10 +10538,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="11"/>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="31"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="24" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
@@ -8377,16 +10556,17 @@
       <c r="C2" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="D2" s="17"/>
+      <c r="H2" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="22" t="s">
         <v>185</v>
       </c>
     </row>
@@ -8400,16 +10580,20 @@
       <c r="C3" s="11">
         <v>7</v>
       </c>
-      <c r="H3" s="22">
+      <c r="D3" s="29">
+        <f>B3/(SUM(B3:C3))</f>
+        <v>0.90540540540540537</v>
+      </c>
+      <c r="H3" s="21">
         <v>1</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="21">
         <v>85.542169999999999</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="21">
         <v>88.636359999999996</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="21" t="s">
         <v>180</v>
       </c>
     </row>
@@ -8423,61 +10607,69 @@
       <c r="C4" s="11">
         <v>4</v>
       </c>
-      <c r="H4" s="22">
+      <c r="D4" s="29">
+        <f>C4/(SUM(B4:C4))</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="H4" s="21">
         <v>2</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="21">
         <v>84.337350000000001</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="21">
         <v>86.426770000000005</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="21" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="30">
         <f>SUM(B3,C4)/SUM(B3:C4)</f>
         <v>0.85542168674698793</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="H5" s="22">
+      <c r="H5" s="21">
         <v>3</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="21">
         <v>84.337350000000001</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="21">
         <v>85.984849999999994</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="21" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="H6" s="22">
+      <c r="H6" s="21">
         <v>4</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="21">
         <v>84.337350000000001</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="21">
         <v>79.545450000000002</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="21" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="31"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="24" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
@@ -8489,6 +10681,7 @@
       <c r="C11" s="17" t="s">
         <v>141</v>
       </c>
+      <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
@@ -8500,6 +10693,10 @@
       <c r="C12" s="11">
         <v>7</v>
       </c>
+      <c r="D12" s="29">
+        <f>B12/(SUM(B12:C12))</f>
+        <v>0.90410958904109584</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
@@ -8511,25 +10708,33 @@
       <c r="C13" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="D13" s="29">
+        <f>C13/(SUM(B13:C13))</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="30">
         <f>SUM(B12,C13)/SUM(B12:C13)</f>
         <v>0.84337349397590367</v>
       </c>
-      <c r="C14" s="30"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="31"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="38"/>
+      <c r="D19" s="24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>144</v>
       </c>
@@ -8539,8 +10744,9 @@
       <c r="C20" s="17" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="17"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>140</v>
       </c>
@@ -8550,8 +10756,12 @@
       <c r="C21" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="29">
+        <f>B21/(SUM(B21:C21))</f>
+        <v>0.90410958904109584</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>141</v>
       </c>
@@ -8561,24 +10771,26 @@
       <c r="C22" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
+      <c r="D22" s="29">
+        <f>C22/(SUM(B22:C22))</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="30">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="30">
         <f>SUM(B21,C22)/SUM(B21:C22)</f>
         <v>0.84337349397590367</v>
       </c>
-      <c r="C23" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B23:C23"/>
+  <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
